--- a/scratch/biofab-sample-objects.xlsx
+++ b/scratch/biofab-sample-objects.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danyfu/Documents/bio-circuit/aq-data-analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F5939A-DA85-B245-B9DD-BA2EB68AD713}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B2E2B94-E8C0-2A40-8B15-C581B78CFB2C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37640" yWindow="1380" windowWidth="37260" windowHeight="18480" xr2:uid="{2DE4FFE6-46AA-964F-BC5A-EB64A4A67A85}"/>
+    <workbookView xWindow="-36760" yWindow="560" windowWidth="36240" windowHeight="18600" xr2:uid="{2DE4FFE6-46AA-964F-BC5A-EB64A4A67A85}"/>
   </bookViews>
   <sheets>
     <sheet name="containers" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="sample-container" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">containers!$A$1:$C$199</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">containers!$A$1:$I$199</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,118 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="658">
-  <si>
-    <t>"Active Cell Line": "Culture mammalian cell line",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "Agro mix": "A mixture of Agrobacterium strains for a transient transformation",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "Agrobacterium strain": "A strain of Agrobacterium tumefaciens",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "Antibody": "Used to label other proteins",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "Arabidopsis T-DNA line": "A line of Arabidopsis carrying a T-DNA insertion",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "Arabidopsis line": "A non-transgenic line of Arabidopsis thaliana.",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "Assay Buffer": "A buffer that is tailored to a specific type of assay or experiment",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "Beads": "calibration beads for flow cytometry",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "Cas9::sgRNA Complex": "Cas9::sgRNA Complex",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "Customer": "All information needed for shipping out products to a BIOFAB customer.",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "DNA Library": "A sample that contains a pool of DNA molecules with many unique sequences",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "E coli strain": "A strain of E coli distinguished from others by genomic (not plasmid) modifications.",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "Enzyme": "Enzymes in 1.5 mL tubes stored at -20C",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "Fragment": "A linear double stranded piece of DNA from PCR or Restriction Digest",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "Hydra Strain": "Strain of hydra",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "Inducer": "Inducers for your experiment!",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "Ladder": "DNA Ladder for Gel Electrophoresis",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "Lentivirus": "3rd generation lentivirus",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "Mammalian Cell Line": "Mammalian Cell Line",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "Mammalian Cell Line (old)": "Mammalian Cell Line",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "Media": "Media for yeast and E. coli",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "Nicotiana benthamiana": "Plant species",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "OLASimple Sample": "Patient sample and OLA kit",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "Oligo Pool": "Pool or library of ssDNA oligos. May contain one or more sublibraries. In array fields, the n-th position corresponds to n-th sublibrary. \"forward priming site\" and \"reverse priming site\" are read as primer sequences.",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "Plasmid": "A circular piece of double stranded DNA",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "Plate Reader Calibration Solution": "Solutions for plate reader calibration",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "Primer": "A short double stranded piece of DNA for PCR and sequencing",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "Primer Mix": "A mix of more than one primer",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "Protease": "An enzyme that digests other proteins",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "Protein": "Protein",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "Purchase Request": "Formatlized ordering for Aquarium/Biofab purchase request",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "Reagents": "Reagents",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "Resin": "Resin",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "SeedSeq Experiment": "A plant functional genomics experiment",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "Tissue Culture Media": "Tissue culture media",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "Yeast Strain": "A strain of yeast distinguished from others by genomic or plasmid modifications"</t>
-  </si>
-  <si>
-    <t>250mL bottle</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="739">
   <si>
     <t>500mL bottle</t>
   </si>
@@ -1943,74 +1832,428 @@
     <t>1.5mL tube</t>
   </si>
   <si>
-    <t>12-well plate</t>
-  </si>
-  <si>
-    <t>PCR tube</t>
-  </si>
-  <si>
-    <t>PCR stripwell</t>
-  </si>
-  <si>
-    <t>6-well TC plate</t>
-  </si>
-  <si>
-    <t>15mL tube</t>
-  </si>
-  <si>
-    <t>1.5mL screw cap tube</t>
-  </si>
-  <si>
-    <t>2ml screw cap tube</t>
+    <t>tube rack</t>
+  </si>
+  <si>
+    <t>gel box</t>
+  </si>
+  <si>
+    <t>column</t>
   </si>
   <si>
     <t>96-well plate</t>
   </si>
   <si>
-    <t>2mL screw cap tube</t>
-  </si>
-  <si>
-    <t>Virtual</t>
-  </si>
-  <si>
-    <t>Hydra Well</t>
-  </si>
-  <si>
-    <t>Cryo Tube</t>
-  </si>
-  <si>
-    <t>Plant</t>
-  </si>
-  <si>
-    <t>Gel box</t>
-  </si>
-  <si>
-    <t>Tube rack</t>
-  </si>
-  <si>
     <t>OLA</t>
   </si>
   <si>
-    <t>Lentivirus container</t>
-  </si>
-  <si>
-    <t>Condensed_name</t>
-  </si>
-  <si>
-    <t>Plate</t>
-  </si>
-  <si>
-    <t>24-well plate</t>
-  </si>
-  <si>
     <t>Seed Bag</t>
+  </si>
+  <si>
+    <t>0.6mL</t>
+  </si>
+  <si>
+    <t>1L</t>
+  </si>
+  <si>
+    <t>100mL</t>
+  </si>
+  <si>
+    <t>200mL</t>
+  </si>
+  <si>
+    <t>250mL</t>
+  </si>
+  <si>
+    <t>400mL</t>
+  </si>
+  <si>
+    <t>50mL</t>
+  </si>
+  <si>
+    <t>500mL</t>
+  </si>
+  <si>
+    <t>50L</t>
+  </si>
+  <si>
+    <t>800mL</t>
+  </si>
+  <si>
+    <t>1nG/1microL</t>
+  </si>
+  <si>
+    <t>5mL</t>
+  </si>
+  <si>
+    <t>40fmole/1microL</t>
+  </si>
+  <si>
+    <t>container_volume</t>
+  </si>
+  <si>
+    <t>sample_volume</t>
+  </si>
+  <si>
+    <t>1mL</t>
+  </si>
+  <si>
+    <t>tube</t>
+  </si>
+  <si>
+    <t>1.5mL</t>
+  </si>
+  <si>
+    <t>bottle</t>
+  </si>
+  <si>
+    <t>plate</t>
+  </si>
+  <si>
+    <t>2mL</t>
+  </si>
+  <si>
+    <t>TC</t>
+  </si>
+  <si>
+    <t>num_wells</t>
+  </si>
+  <si>
+    <t>50x</t>
+  </si>
+  <si>
+    <t>Fragment</t>
+  </si>
+  <si>
+    <t>A linear double stranded piece of DNA from PCR or Restriction Digest</t>
+  </si>
+  <si>
+    <t>Plasmid</t>
+  </si>
+  <si>
+    <t>A circular piece of double stranded DNA</t>
+  </si>
+  <si>
+    <t>Primer</t>
+  </si>
+  <si>
+    <t>A short double stranded piece of DNA for PCR and sequencing</t>
+  </si>
+  <si>
+    <t>DNA Library</t>
+  </si>
+  <si>
+    <t>A sample that contains a pool of DNA molecules with many unique sequences</t>
+  </si>
+  <si>
+    <t>E coli strain</t>
+  </si>
+  <si>
+    <t>A strain of E coli distinguished from others by genomic (not plasmid) modifications.</t>
+  </si>
+  <si>
+    <t>Yeast Strain</t>
+  </si>
+  <si>
+    <t>A strain of yeast distinguished from others by genomic or plasmid modifications</t>
+  </si>
+  <si>
+    <t>Purchase Request</t>
+  </si>
+  <si>
+    <t>Formatlized ordering for Aquarium/Biofab purchase request</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>Media for yeast and E. coli</t>
+  </si>
+  <si>
+    <t>Hydra Strain</t>
+  </si>
+  <si>
+    <t>Strain of hydra</t>
+  </si>
+  <si>
+    <t>Cas9::sgRNA Complex</t>
+  </si>
+  <si>
+    <t>Enzyme</t>
+  </si>
+  <si>
+    <t>Enzymes in 1.5 mL tubes stored at -20C</t>
+  </si>
+  <si>
+    <t>Mammalian Cell Line (old)</t>
+  </si>
+  <si>
+    <t>Mammalian Cell Line</t>
+  </si>
+  <si>
+    <t>Active Cell Line</t>
+  </si>
+  <si>
+    <t>Culture mammalian cell line</t>
+  </si>
+  <si>
+    <t>Tissue Culture Media</t>
+  </si>
+  <si>
+    <t>Tissue culture media</t>
+  </si>
+  <si>
+    <t>Lentivirus</t>
+  </si>
+  <si>
+    <t>3rd generation lentivirus</t>
+  </si>
+  <si>
+    <t>Agrobacterium strain</t>
+  </si>
+  <si>
+    <t>A strain of Agrobacterium tumefaciens</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>All information needed for shipping out products to a BIOFAB customer.</t>
+  </si>
+  <si>
+    <t>Beads</t>
+  </si>
+  <si>
+    <t>calibration beads for flow cytometry</t>
+  </si>
+  <si>
+    <t>Agro mix</t>
+  </si>
+  <si>
+    <t>A mixture of Agrobacterium strains for a transient transformation</t>
+  </si>
+  <si>
+    <t>Arabidopsis line</t>
+  </si>
+  <si>
+    <t>A non-transgenic line of Arabidopsis thaliana.</t>
+  </si>
+  <si>
+    <t>Arabidopsis T-DNA line</t>
+  </si>
+  <si>
+    <t>A line of Arabidopsis carrying a T-DNA insertion</t>
+  </si>
+  <si>
+    <t>Nicotiana benthamiana</t>
+  </si>
+  <si>
+    <t>Plant species</t>
+  </si>
+  <si>
+    <t>SeedSeq Experiment</t>
+  </si>
+  <si>
+    <t>A plant functional genomics experiment</t>
+  </si>
+  <si>
+    <t>Oligo Pool</t>
+  </si>
+  <si>
+    <t>Pool or library of ssDNA oligos. May contain one or more sublibraries. In array fields, the n-th position corresponds to n-th sublibrary. "forward priming site" and "reverse priming site" are read as primer sequences.</t>
+  </si>
+  <si>
+    <t>Reagents</t>
+  </si>
+  <si>
+    <t>Protease</t>
+  </si>
+  <si>
+    <t>An enzyme that digests other proteins</t>
+  </si>
+  <si>
+    <t>Antibody</t>
+  </si>
+  <si>
+    <t>Used to label other proteins</t>
+  </si>
+  <si>
+    <t>OLASimple Sample</t>
+  </si>
+  <si>
+    <t>Patient sample and OLA kit</t>
+  </si>
+  <si>
+    <t>Primer Mix</t>
+  </si>
+  <si>
+    <t>A mix of more than one primer</t>
+  </si>
+  <si>
+    <t>Inducer</t>
+  </si>
+  <si>
+    <t>Inducers for your experiment!</t>
+  </si>
+  <si>
+    <t>Ladder</t>
+  </si>
+  <si>
+    <t>DNA Ladder for Gel Electrophoresis</t>
+  </si>
+  <si>
+    <t>Assay Buffer</t>
+  </si>
+  <si>
+    <t>A buffer that is tailored to a specific type of assay or experiment</t>
+  </si>
+  <si>
+    <t>Resin</t>
+  </si>
+  <si>
+    <t>Protein</t>
+  </si>
+  <si>
+    <t>Plate Reader Calibration Solution</t>
+  </si>
+  <si>
+    <t>Solutions for plate reader calibration</t>
+  </si>
+  <si>
+    <t>nalgene tank</t>
+  </si>
+  <si>
+    <t>virtual</t>
+  </si>
+  <si>
+    <t>stripwell</t>
+  </si>
+  <si>
+    <t>qPCR</t>
+  </si>
+  <si>
+    <t>shallow</t>
+  </si>
+  <si>
+    <t>u-bottom</t>
+  </si>
+  <si>
+    <t>u-bottom cell culture</t>
+  </si>
+  <si>
+    <t>flat-bottom</t>
+  </si>
+  <si>
+    <t>PCR</t>
+  </si>
+  <si>
+    <t>primer-aliquot</t>
+  </si>
+  <si>
+    <t>agar</t>
+  </si>
+  <si>
+    <t>15mL</t>
+  </si>
+  <si>
+    <t>plant</t>
+  </si>
+  <si>
+    <t>lentivirus container</t>
+  </si>
+  <si>
+    <t>divided</t>
+  </si>
+  <si>
+    <t>screw cap</t>
+  </si>
+  <si>
+    <t>container_type</t>
+  </si>
+  <si>
+    <t>container</t>
+  </si>
+  <si>
+    <t>concentration</t>
+  </si>
+  <si>
+    <t>density</t>
+  </si>
+  <si>
+    <t>deepwell</t>
+  </si>
+  <si>
+    <t>pot</t>
+  </si>
+  <si>
+    <t>flat</t>
+  </si>
+  <si>
+    <t>seedstock</t>
+  </si>
+  <si>
+    <t>golden gate</t>
+  </si>
+  <si>
+    <t>tissue</t>
+  </si>
+  <si>
+    <t>leaf discs</t>
+  </si>
+  <si>
+    <t>hydra dish</t>
+  </si>
+  <si>
+    <t>hydra tray</t>
+  </si>
+  <si>
+    <t>1mM</t>
+  </si>
+  <si>
+    <t>10microM</t>
+  </si>
+  <si>
+    <t>100microM</t>
+  </si>
+  <si>
+    <t>bag</t>
+  </si>
+  <si>
+    <t>cryostock</t>
+  </si>
+  <si>
+    <t>sequencing</t>
+  </si>
+  <si>
+    <t>175cm^2</t>
+  </si>
+  <si>
+    <t>25cm^2</t>
+  </si>
+  <si>
+    <t>75mm^2</t>
+  </si>
+  <si>
+    <t>flask</t>
+  </si>
+  <si>
+    <t>tray</t>
+  </si>
+  <si>
+    <t>hydra well</t>
+  </si>
+  <si>
+    <t>cryo tube</t>
+  </si>
+  <si>
+    <t>1.8mL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2030,6 +2273,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -2040,7 +2289,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2084,10 +2333,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2095,6 +2344,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2409,2210 +2667,3259 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B00F26C4-7860-8C47-84CE-76E229E3357F}">
-  <dimension ref="A1:C199"/>
+  <dimension ref="A1:I199"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A156" sqref="A156"/>
+      <pane ySplit="1" topLeftCell="A192" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D204" sqref="D204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="38.83203125" customWidth="1"/>
-    <col min="3" max="3" width="135.6640625" customWidth="1"/>
+    <col min="1" max="1" width="33.83203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="19.1640625" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="76.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>634</v>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>597</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>654</v>
+        <v>713</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+        <v>712</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>620</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>715</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>433</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="11" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B3" t="s">
+        <v>622</v>
+      </c>
+      <c r="E3" t="s">
+        <v>623</v>
+      </c>
+      <c r="F3" t="s">
+        <v>606</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="B4" t="s">
+        <v>624</v>
+      </c>
+      <c r="E4" t="s">
+        <v>607</v>
+      </c>
+      <c r="F4" t="s">
+        <v>607</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B5" t="s">
+        <v>622</v>
+      </c>
+      <c r="E5" t="s">
+        <v>623</v>
+      </c>
+      <c r="H5" t="s">
+        <v>616</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B6" t="s">
+        <v>622</v>
+      </c>
+      <c r="E6" t="s">
+        <v>623</v>
+      </c>
+      <c r="H6" t="s">
+        <v>616</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="B7" t="s">
+        <v>622</v>
+      </c>
+      <c r="E7" t="s">
+        <v>623</v>
+      </c>
+      <c r="H7" t="s">
+        <v>616</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="B8" t="s">
+        <v>622</v>
+      </c>
+      <c r="E8" t="s">
+        <v>623</v>
+      </c>
+      <c r="H8" t="s">
+        <v>616</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B9" t="s">
+        <v>624</v>
+      </c>
+      <c r="E9" t="s">
+        <v>610</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="B10" t="s">
+        <v>625</v>
+      </c>
+      <c r="C10" t="s">
+        <v>627</v>
+      </c>
+      <c r="D10">
+        <v>12</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B11" t="s">
+        <v>624</v>
+      </c>
+      <c r="E11" t="s">
+        <v>607</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0.12</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B12" t="s">
+        <v>624</v>
+      </c>
+      <c r="E12" t="s">
+        <v>607</v>
+      </c>
+      <c r="G12" s="8">
+        <v>0.12</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B13" t="s">
+        <v>622</v>
+      </c>
+      <c r="E13" t="s">
+        <v>623</v>
+      </c>
+      <c r="G13" t="s">
+        <v>725</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B14" t="s">
+        <v>622</v>
+      </c>
+      <c r="E14" t="s">
+        <v>623</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B15" t="s">
+        <v>622</v>
+      </c>
+      <c r="C15" t="s">
+        <v>711</v>
+      </c>
+      <c r="E15" t="s">
+        <v>626</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="B16" t="s">
+        <v>624</v>
+      </c>
+      <c r="E16" t="s">
+        <v>610</v>
+      </c>
+      <c r="F16" t="s">
+        <v>609</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="B17" t="s">
+        <v>624</v>
+      </c>
+      <c r="E17" t="s">
+        <v>610</v>
+      </c>
+      <c r="F17" t="s">
+        <v>609</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B18" t="s">
+        <v>624</v>
+      </c>
+      <c r="E18" t="s">
+        <v>610</v>
+      </c>
+      <c r="F18" t="s">
+        <v>609</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D19">
+        <v>24</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B20" t="s">
+        <v>600</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="B21" t="s">
+        <v>625</v>
+      </c>
+      <c r="D21">
+        <v>24</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B22" t="s">
+        <v>624</v>
+      </c>
+      <c r="E22" t="s">
+        <v>610</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B23" t="s">
+        <v>622</v>
+      </c>
+      <c r="E23" t="s">
+        <v>623</v>
+      </c>
+      <c r="G23" t="s">
+        <v>618</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B24" t="s">
+        <v>622</v>
+      </c>
+      <c r="E24" t="s">
+        <v>623</v>
+      </c>
+      <c r="G24" t="s">
+        <v>618</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B25" t="s">
+        <v>624</v>
+      </c>
+      <c r="E25" t="s">
+        <v>607</v>
+      </c>
+      <c r="F25" t="s">
+        <v>611</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="B26" t="s">
+        <v>624</v>
+      </c>
+      <c r="E26" t="s">
+        <v>607</v>
+      </c>
+      <c r="F26" t="s">
+        <v>611</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="B27" t="s">
+        <v>601</v>
+      </c>
+      <c r="F27" t="s">
+        <v>612</v>
+      </c>
+      <c r="G27" s="9">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B28" t="s">
+        <v>601</v>
+      </c>
+      <c r="F28" t="s">
+        <v>612</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B29" t="s">
+        <v>601</v>
+      </c>
+      <c r="F29" t="s">
+        <v>612</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="B30" t="s">
+        <v>624</v>
+      </c>
+      <c r="E30" t="s">
+        <v>607</v>
+      </c>
+      <c r="F30" t="s">
+        <v>613</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="B31" t="s">
+        <v>624</v>
+      </c>
+      <c r="E31" t="s">
+        <v>607</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>624</v>
+      </c>
+      <c r="E32" t="s">
+        <v>613</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="B33" t="s">
+        <v>696</v>
+      </c>
+      <c r="E33" t="s">
+        <v>614</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B34" t="s">
+        <v>601</v>
+      </c>
+      <c r="F34" t="s">
+        <v>612</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="12" t="s">
+        <v>569</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>622</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>704</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>629</v>
+      </c>
+      <c r="I35" s="12" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="B36" t="s">
+        <v>625</v>
+      </c>
+      <c r="C36" t="s">
+        <v>627</v>
+      </c>
+      <c r="D36">
+        <v>6</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="B37" t="s">
+        <v>624</v>
+      </c>
+      <c r="E37" t="s">
+        <v>607</v>
+      </c>
+      <c r="F37" t="s">
+        <v>615</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B38" t="s">
+        <v>598</v>
+      </c>
+      <c r="E38" t="s">
+        <v>607</v>
+      </c>
+      <c r="F38" t="s">
+        <v>615</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B39" t="s">
+        <v>697</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="B40" t="s">
+        <v>698</v>
+      </c>
+      <c r="C40" t="s">
+        <v>699</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B41" t="s">
+        <v>625</v>
+      </c>
+      <c r="C41" t="s">
+        <v>700</v>
+      </c>
+      <c r="D41">
+        <v>96</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B42" t="s">
+        <v>625</v>
+      </c>
+      <c r="C42" t="s">
+        <v>702</v>
+      </c>
+      <c r="D42">
+        <v>96</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B43" t="s">
+        <v>625</v>
+      </c>
+      <c r="C43" t="s">
+        <v>701</v>
+      </c>
+      <c r="D43">
+        <v>96</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="B44" t="s">
+        <v>625</v>
+      </c>
+      <c r="C44" t="s">
+        <v>703</v>
+      </c>
+      <c r="D44">
+        <v>96</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B45" t="s">
+        <v>625</v>
+      </c>
+      <c r="C45" t="s">
+        <v>704</v>
+      </c>
+      <c r="D45">
+        <v>96</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B46" t="s">
+        <v>625</v>
+      </c>
+      <c r="C46" t="s">
+        <v>705</v>
+      </c>
+      <c r="D46">
+        <v>96</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="B47" t="s">
+        <v>625</v>
+      </c>
+      <c r="C47" t="s">
+        <v>627</v>
+      </c>
+      <c r="D47">
+        <v>96</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="B48" t="s">
+        <v>697</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B49" t="s">
+        <v>625</v>
+      </c>
+      <c r="C49" t="s">
+        <v>706</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="B50" t="s">
+        <v>625</v>
+      </c>
+      <c r="C50" t="s">
+        <v>706</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="B51" t="s">
+        <v>622</v>
+      </c>
+      <c r="E51" t="s">
+        <v>707</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B52" t="s">
+        <v>598</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B54" t="s">
+        <v>624</v>
+      </c>
+      <c r="E54" t="s">
+        <v>610</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B55" t="s">
+        <v>624</v>
+      </c>
+      <c r="E55" t="s">
+        <v>610</v>
+      </c>
+      <c r="F55" t="s">
+        <v>608</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>622</v>
+      </c>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>625</v>
+      </c>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="2" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="B68" t="s">
+        <v>624</v>
+      </c>
+      <c r="E68" t="s">
+        <v>610</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="2" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B70" t="s">
+        <v>622</v>
+      </c>
+      <c r="C70" s="3"/>
+      <c r="E70" t="s">
+        <v>623</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B71" t="s">
+        <v>622</v>
+      </c>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" t="s">
+        <v>623</v>
+      </c>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B72" t="s">
+        <v>622</v>
+      </c>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" t="s">
+        <v>623</v>
+      </c>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+      <c r="I72" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>625</v>
+      </c>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="2" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="2" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
+      <c r="I75" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
+      <c r="I76" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3"/>
+      <c r="I77" s="2" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3"/>
+      <c r="I78" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
+      <c r="I79" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
+      <c r="I80" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3"/>
+      <c r="I81" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3"/>
+      <c r="I82" s="2" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3"/>
+      <c r="I83" s="2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3"/>
+      <c r="I84" s="2" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="3"/>
+      <c r="I85" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="3"/>
+      <c r="I86" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="3"/>
+      <c r="I87" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A88" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="3"/>
+      <c r="I88" s="2" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A89" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="3"/>
+      <c r="I89" s="2" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A90" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="3"/>
+      <c r="I90" s="2" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A91" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="D91" s="3">
+        <v>96</v>
+      </c>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="3"/>
+      <c r="I91" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A92" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="3"/>
+      <c r="I92" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A93" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3"/>
+      <c r="F93" s="3"/>
+      <c r="G93" s="3"/>
+      <c r="H93" s="3"/>
+      <c r="I93" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="3"/>
+      <c r="G94" s="3"/>
+      <c r="H94" s="3"/>
+      <c r="I94" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A95" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>625</v>
+      </c>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="6"/>
+      <c r="I95" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="B96" t="s">
+        <v>622</v>
+      </c>
+      <c r="E96" t="s">
+        <v>623</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B97" t="s">
+        <v>622</v>
+      </c>
+      <c r="E97" t="s">
+        <v>623</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A98" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="B98" t="s">
+        <v>622</v>
+      </c>
+      <c r="E98" t="s">
+        <v>623</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A99" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="B99" t="s">
+        <v>624</v>
+      </c>
+      <c r="E99" t="s">
+        <v>610</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A100" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="B100" t="s">
+        <v>622</v>
+      </c>
+      <c r="E100" t="s">
+        <v>623</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A101" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="B101" t="s">
+        <v>698</v>
+      </c>
+      <c r="C101" t="s">
+        <v>720</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A102" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="D102" s="3"/>
+      <c r="E102" s="3"/>
+      <c r="F102" s="3"/>
+      <c r="G102" s="3"/>
+      <c r="H102" s="3"/>
+      <c r="I102" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A103" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="D103" s="3"/>
+      <c r="E103" s="3"/>
+      <c r="F103" s="3"/>
+      <c r="G103" s="3"/>
+      <c r="H103" s="3"/>
+      <c r="I103" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A104" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="B104" t="s">
+        <v>723</v>
+      </c>
+      <c r="I104" s="2" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A105" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="B105" t="s">
+        <v>724</v>
+      </c>
+      <c r="I105" s="2" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A106" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>625</v>
+      </c>
+      <c r="C106" s="6"/>
+      <c r="D106" s="6"/>
+      <c r="E106" s="6"/>
+      <c r="F106" s="6"/>
+      <c r="G106" s="6"/>
+      <c r="H106" s="6"/>
+      <c r="I106" s="2" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A107" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B107" t="s">
+        <v>622</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="I107" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A108" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B108" t="s">
+        <v>603</v>
+      </c>
+      <c r="I108" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A109" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B109" t="s">
+        <v>599</v>
+      </c>
+      <c r="I109" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A110" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B110" t="s">
+        <v>622</v>
+      </c>
+      <c r="C110" t="s">
+        <v>711</v>
+      </c>
+      <c r="E110" t="s">
+        <v>623</v>
+      </c>
+      <c r="I110" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A111" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="D111" s="3"/>
+      <c r="E111" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="F111" s="3"/>
+      <c r="G111" s="3"/>
+      <c r="H111" s="3"/>
+      <c r="I111" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A112" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B112" t="s">
+        <v>709</v>
+      </c>
+      <c r="I112" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A113" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="B113" t="s">
+        <v>709</v>
+      </c>
+      <c r="I113" s="2" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A114" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="B114" t="s">
+        <v>709</v>
+      </c>
+      <c r="I114" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A115" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="B115" t="s">
+        <v>709</v>
+      </c>
+      <c r="I115" s="2" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A116" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="B116" t="s">
+        <v>709</v>
+      </c>
+      <c r="I116" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>636</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A117" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="B117" t="s">
+        <v>622</v>
+      </c>
+      <c r="E117" t="s">
+        <v>623</v>
+      </c>
+      <c r="I117" s="2" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A118" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>625</v>
+      </c>
+      <c r="C118" s="6"/>
+      <c r="D118" s="6"/>
+      <c r="E118" s="6"/>
+      <c r="F118" s="6"/>
+      <c r="G118" s="6"/>
+      <c r="H118" s="6"/>
+      <c r="I118" s="2" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A119" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="B119" s="14" t="s">
+        <v>622</v>
+      </c>
+      <c r="C119" s="14"/>
+      <c r="D119" s="14"/>
+      <c r="E119" s="14"/>
+      <c r="F119" s="14"/>
+      <c r="G119" s="14"/>
+      <c r="H119" s="14"/>
+      <c r="I119" s="2" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A120" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="B120" t="s">
+        <v>622</v>
+      </c>
+      <c r="C120" t="s">
+        <v>711</v>
+      </c>
+      <c r="E120" t="s">
+        <v>626</v>
+      </c>
+      <c r="I120" s="2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A121" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="B121" t="s">
+        <v>622</v>
+      </c>
+      <c r="E121" t="s">
+        <v>623</v>
+      </c>
+      <c r="I121" s="2" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A122" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>625</v>
+      </c>
+      <c r="C122" s="6"/>
+      <c r="D122" s="6"/>
+      <c r="E122" s="6"/>
+      <c r="F122" s="6"/>
+      <c r="G122" s="6"/>
+      <c r="H122" s="6"/>
+      <c r="I122" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A123" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="B123" t="s">
+        <v>622</v>
+      </c>
+      <c r="E123" t="s">
+        <v>623</v>
+      </c>
+      <c r="I123" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A124" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="B124" t="s">
+        <v>622</v>
+      </c>
+      <c r="E124" t="s">
+        <v>623</v>
+      </c>
+      <c r="I124" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A125" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B125" t="s">
+        <v>622</v>
+      </c>
+      <c r="E125" t="s">
+        <v>623</v>
+      </c>
+      <c r="I125" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A126" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>625</v>
+      </c>
+      <c r="C126" s="6"/>
+      <c r="D126" s="6"/>
+      <c r="E126" s="6"/>
+      <c r="F126" s="6"/>
+      <c r="G126" s="6"/>
+      <c r="H126" s="6"/>
+      <c r="I126" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A127" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="C127" s="3"/>
+      <c r="D127" s="3"/>
+      <c r="E127" s="3"/>
+      <c r="F127" s="3"/>
+      <c r="G127" s="3"/>
+      <c r="H127" s="3"/>
+      <c r="I127" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A128" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="C128" s="3"/>
+      <c r="D128" s="3"/>
+      <c r="E128" s="3"/>
+      <c r="F128" s="3"/>
+      <c r="G128" s="3"/>
+      <c r="H128" s="3"/>
+      <c r="I128" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A129" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="C129" s="3"/>
+      <c r="D129" s="3"/>
+      <c r="E129" s="3"/>
+      <c r="F129" s="3"/>
+      <c r="G129" s="3"/>
+      <c r="H129" s="3"/>
+      <c r="I129" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A130" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="C130" s="3"/>
+      <c r="D130" s="3"/>
+      <c r="E130" s="3"/>
+      <c r="F130" s="3"/>
+      <c r="G130" s="3"/>
+      <c r="H130" s="3"/>
+      <c r="I130" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A131" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="C131" s="3"/>
+      <c r="D131" s="3"/>
+      <c r="E131" s="3"/>
+      <c r="F131" s="3"/>
+      <c r="G131" s="3"/>
+      <c r="H131" s="3"/>
+      <c r="I131" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A132" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="C132" s="3"/>
+      <c r="D132" s="3"/>
+      <c r="E132" s="3"/>
+      <c r="F132" s="3"/>
+      <c r="G132" s="3"/>
+      <c r="H132" s="3"/>
+      <c r="I132" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A133" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="C133" s="3"/>
+      <c r="D133" s="3"/>
+      <c r="E133" s="3"/>
+      <c r="F133" s="3"/>
+      <c r="G133" s="3"/>
+      <c r="H133" s="3"/>
+      <c r="I133" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A134" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="C134" s="3"/>
+      <c r="D134" s="3"/>
+      <c r="E134" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="F134" s="3"/>
+      <c r="G134" s="3"/>
+      <c r="H134" s="3"/>
+      <c r="I134" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A135" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="C135" s="3"/>
+      <c r="D135" s="3"/>
+      <c r="E135" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="F135" s="3"/>
+      <c r="G135" s="3"/>
+      <c r="H135" s="3"/>
+      <c r="I135" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A136" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="D136" s="3"/>
+      <c r="E136" s="3"/>
+      <c r="F136" s="3"/>
+      <c r="G136" s="3"/>
+      <c r="H136" s="3"/>
+      <c r="I136" s="2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A137" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="C137" s="3"/>
+      <c r="D137" s="3"/>
+      <c r="E137" s="3"/>
+      <c r="F137" s="3"/>
+      <c r="G137" s="3"/>
+      <c r="H137" s="3"/>
+      <c r="I137" s="2" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A138" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="C138" s="3"/>
+      <c r="D138" s="3"/>
+      <c r="E138" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="F138" s="3"/>
+      <c r="G138" s="3"/>
+      <c r="H138" s="3"/>
+      <c r="I138" s="2" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A139" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="C139" s="3"/>
+      <c r="D139" s="3"/>
+      <c r="E139" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="F139" s="3"/>
+      <c r="G139" s="3"/>
+      <c r="H139" s="3"/>
+      <c r="I139" s="2" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A140" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>625</v>
+      </c>
+      <c r="C140" s="6"/>
+      <c r="D140" s="6"/>
+      <c r="E140" s="6"/>
+      <c r="F140" s="6"/>
+      <c r="G140" s="6"/>
+      <c r="H140" s="6"/>
+      <c r="I140" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A141" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="B141" t="s">
+        <v>599</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="I141" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A142" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B142" t="s">
+        <v>599</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="I142" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A143" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B143" t="s">
+        <v>625</v>
+      </c>
+      <c r="C143" t="s">
+        <v>706</v>
+      </c>
+      <c r="I143" s="2" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A144" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="B144" t="s">
+        <v>625</v>
+      </c>
+      <c r="C144" t="s">
+        <v>706</v>
+      </c>
+      <c r="I144" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A145" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="B145" t="s">
+        <v>697</v>
+      </c>
+      <c r="I145" s="2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A146" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B146" s="6" t="s">
+        <v>625</v>
+      </c>
+      <c r="C146" s="6"/>
+      <c r="D146" s="6"/>
+      <c r="E146" s="6"/>
+      <c r="F146" s="6"/>
+      <c r="G146" s="6"/>
+      <c r="H146" s="6"/>
+      <c r="I146" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A147" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="D147" s="3"/>
+      <c r="E147" s="3"/>
+      <c r="F147" s="3"/>
+      <c r="G147" s="3"/>
+      <c r="H147" s="3"/>
+      <c r="I147" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A148" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="B148" t="s">
+        <v>622</v>
+      </c>
+      <c r="E148" t="s">
+        <v>623</v>
+      </c>
+      <c r="G148" t="s">
+        <v>726</v>
+      </c>
+      <c r="I148" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A149" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B149" s="6" t="s">
+        <v>624</v>
+      </c>
+      <c r="C149" s="6"/>
+      <c r="D149" s="6"/>
+      <c r="E149" s="6"/>
+      <c r="F149" s="6"/>
+      <c r="G149" s="6"/>
+      <c r="H149" s="6"/>
+      <c r="I149" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A150" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="B150" t="s">
+        <v>622</v>
+      </c>
+      <c r="C150" t="s">
+        <v>711</v>
+      </c>
+      <c r="E150" t="s">
+        <v>623</v>
+      </c>
+      <c r="G150" t="s">
+        <v>727</v>
+      </c>
+      <c r="I150" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A151" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B151" s="6" t="s">
+        <v>622</v>
+      </c>
+      <c r="C151" s="6"/>
+      <c r="D151" s="6"/>
+      <c r="E151" s="6" t="s">
+        <v>623</v>
+      </c>
+      <c r="F151" s="6"/>
+      <c r="G151" s="6"/>
+      <c r="H151" s="6"/>
+      <c r="I151" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A152" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B152" s="6" t="s">
+        <v>622</v>
+      </c>
+      <c r="C152" s="6"/>
+      <c r="D152" s="6"/>
+      <c r="E152" s="6" t="s">
+        <v>623</v>
+      </c>
+      <c r="F152" s="6"/>
+      <c r="G152" s="6"/>
+      <c r="H152" s="6"/>
+      <c r="I152" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A153" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B153" s="6" t="s">
+        <v>622</v>
+      </c>
+      <c r="C153" s="6"/>
+      <c r="D153" s="6"/>
+      <c r="E153" s="6" t="s">
+        <v>623</v>
+      </c>
+      <c r="F153" s="6"/>
+      <c r="G153" s="6"/>
+      <c r="H153" s="6"/>
+      <c r="I153" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A154" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="C154" s="3"/>
+      <c r="D154" s="3"/>
+      <c r="E154" s="3"/>
+      <c r="F154" s="3"/>
+      <c r="G154" s="3"/>
+      <c r="H154" s="3"/>
+      <c r="I154" s="2" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A155" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B155" s="6" t="s">
+        <v>625</v>
+      </c>
+      <c r="C155" s="6"/>
+      <c r="D155" s="6"/>
+      <c r="E155" s="6"/>
+      <c r="F155" s="6"/>
+      <c r="G155" s="6"/>
+      <c r="H155" s="6"/>
+      <c r="I155" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A156" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="D156" s="3"/>
+      <c r="E156" s="3"/>
+      <c r="F156" s="3"/>
+      <c r="G156" s="3"/>
+      <c r="H156" s="3"/>
+      <c r="I156" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A157" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="D157" s="3"/>
+      <c r="E157" s="3"/>
+      <c r="F157" s="3"/>
+      <c r="G157" s="3"/>
+      <c r="H157" s="3"/>
+      <c r="I157" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A158" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="B158" t="s">
+        <v>697</v>
+      </c>
+      <c r="I158" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A159" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="B159" t="s">
+        <v>697</v>
+      </c>
+      <c r="I159" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A160" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="B160" t="s">
+        <v>698</v>
+      </c>
+      <c r="C160" t="s">
+        <v>730</v>
+      </c>
+      <c r="I160" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A161" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B161" t="s">
+        <v>622</v>
+      </c>
+      <c r="E161" t="s">
+        <v>623</v>
+      </c>
+      <c r="I161" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A162" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="B162" t="s">
+        <v>698</v>
+      </c>
+      <c r="I162" s="2" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A163" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="B163" t="s">
+        <v>698</v>
+      </c>
+      <c r="I163" s="2" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A164" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="B164" t="s">
+        <v>734</v>
+      </c>
+      <c r="E164" t="s">
+        <v>731</v>
+      </c>
+      <c r="I164" s="2" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A165" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="B165" t="s">
+        <v>734</v>
+      </c>
+      <c r="E165" t="s">
+        <v>732</v>
+      </c>
+      <c r="I165" s="2" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A166" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="B166" t="s">
+        <v>734</v>
+      </c>
+      <c r="E166" t="s">
+        <v>733</v>
+      </c>
+      <c r="I166" s="2" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A167" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B167" t="s">
+        <v>624</v>
+      </c>
+      <c r="E167" t="s">
+        <v>613</v>
+      </c>
+      <c r="F167" t="s">
+        <v>611</v>
+      </c>
+      <c r="I167" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A168" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="B168" t="s">
+        <v>622</v>
+      </c>
+      <c r="E168" t="s">
+        <v>707</v>
+      </c>
+      <c r="I168" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A169" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="B169" s="6" t="s">
+        <v>624</v>
+      </c>
+      <c r="C169" s="6"/>
+      <c r="D169" s="6"/>
+      <c r="E169" s="6"/>
+      <c r="F169" s="6"/>
+      <c r="G169" s="6"/>
+      <c r="H169" s="6"/>
+      <c r="I169" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A170" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="B170" t="s">
+        <v>622</v>
+      </c>
+      <c r="E170" t="s">
+        <v>623</v>
+      </c>
+      <c r="I170" s="2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A171" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="B171" t="s">
+        <v>622</v>
+      </c>
+      <c r="E171" t="s">
+        <v>623</v>
+      </c>
+      <c r="I171" s="2" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A172" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="D172" s="3"/>
+      <c r="E172" s="3"/>
+      <c r="F172" s="3"/>
+      <c r="G172" s="3"/>
+      <c r="H172" s="3"/>
+      <c r="I172" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A173" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="D173" s="3"/>
+      <c r="E173" s="3"/>
+      <c r="F173" s="3"/>
+      <c r="G173" s="3"/>
+      <c r="H173" s="3"/>
+      <c r="I173" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A174" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="C174" s="3"/>
+      <c r="D174" s="3"/>
+      <c r="E174" s="3"/>
+      <c r="F174" s="3"/>
+      <c r="G174" s="3"/>
+      <c r="H174" s="3"/>
+      <c r="I174" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A175" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="D175" s="3"/>
+      <c r="E175" s="3"/>
+      <c r="F175" s="3"/>
+      <c r="G175" s="3"/>
+      <c r="H175" s="3"/>
+      <c r="I175" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A176" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="D176" s="3"/>
+      <c r="E176" s="3"/>
+      <c r="F176" s="3"/>
+      <c r="G176" s="3"/>
+      <c r="H176" s="3"/>
+      <c r="I176" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A177" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="D177" s="3"/>
+      <c r="E177" s="3"/>
+      <c r="F177" s="3"/>
+      <c r="G177" s="3"/>
+      <c r="H177" s="3"/>
+      <c r="I177" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A178" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="B178" t="s">
+        <v>622</v>
+      </c>
+      <c r="E178" t="s">
+        <v>623</v>
+      </c>
+      <c r="I178" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A179" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="C179" s="3"/>
+      <c r="D179" s="3"/>
+      <c r="E179" s="3"/>
+      <c r="F179" s="3"/>
+      <c r="G179" s="3"/>
+      <c r="H179" s="3"/>
+      <c r="I179" s="2" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A180" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B180" t="s">
+        <v>622</v>
+      </c>
+      <c r="C180" t="s">
+        <v>704</v>
+      </c>
+      <c r="I180" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A181" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="B181" t="s">
+        <v>622</v>
+      </c>
+      <c r="E181" t="s">
+        <v>623</v>
+      </c>
+      <c r="I181" s="2" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A182" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="B182" t="s">
+        <v>736</v>
+      </c>
+      <c r="I182" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A183" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="B183" t="s">
+        <v>737</v>
+      </c>
+      <c r="I183" s="2" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A184" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B184" t="s">
+        <v>624</v>
+      </c>
+      <c r="E184" t="s">
+        <v>610</v>
+      </c>
+      <c r="F184" t="s">
+        <v>608</v>
+      </c>
+      <c r="I184" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A185" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B185" t="s">
+        <v>624</v>
+      </c>
+      <c r="E185" t="s">
+        <v>613</v>
+      </c>
+      <c r="F185" t="s">
+        <v>610</v>
+      </c>
+      <c r="I185" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A186" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="B186" t="s">
+        <v>624</v>
+      </c>
+      <c r="E186" t="s">
+        <v>610</v>
+      </c>
+      <c r="F186" t="s">
+        <v>612</v>
+      </c>
+      <c r="I186" s="2" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A187" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B187" t="s">
+        <v>622</v>
+      </c>
+      <c r="E187" t="s">
+        <v>707</v>
+      </c>
+      <c r="F187" t="s">
+        <v>617</v>
+      </c>
+      <c r="I187" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A188" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B188" t="s">
+        <v>622</v>
+      </c>
+      <c r="E188" t="s">
+        <v>623</v>
+      </c>
+      <c r="I188" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A189" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="B189" t="s">
+        <v>622</v>
+      </c>
+      <c r="E189" t="s">
+        <v>623</v>
+      </c>
+      <c r="I189" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="B3" t="s">
-        <v>636</v>
-      </c>
-      <c r="C3" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>556</v>
-      </c>
-      <c r="B4" t="s">
-        <v>635</v>
-      </c>
-      <c r="C4" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>320</v>
-      </c>
-      <c r="B5" t="s">
-        <v>636</v>
-      </c>
-      <c r="C5" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>322</v>
-      </c>
-      <c r="B6" t="s">
-        <v>636</v>
-      </c>
-      <c r="C6" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>609</v>
-      </c>
-      <c r="B7" t="s">
-        <v>636</v>
-      </c>
-      <c r="C7" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>610</v>
-      </c>
-      <c r="B8" t="s">
-        <v>636</v>
-      </c>
-      <c r="C8" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>373</v>
-      </c>
-      <c r="B9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>516</v>
-      </c>
-      <c r="B10" t="s">
-        <v>637</v>
-      </c>
-      <c r="C10" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>292</v>
-      </c>
-      <c r="B11" t="s">
-        <v>635</v>
-      </c>
-      <c r="C11" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>296</v>
-      </c>
-      <c r="B12" t="s">
-        <v>635</v>
-      </c>
-      <c r="C12" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>282</v>
-      </c>
-      <c r="B13" t="s">
-        <v>636</v>
-      </c>
-      <c r="C13" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>284</v>
-      </c>
-      <c r="B14" t="s">
-        <v>636</v>
-      </c>
-      <c r="C14" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>330</v>
-      </c>
-      <c r="B15" t="s">
-        <v>645</v>
-      </c>
-      <c r="C15" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>490</v>
-      </c>
-      <c r="B16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>559</v>
-      </c>
-      <c r="B17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>314</v>
-      </c>
-      <c r="B18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>460</v>
-      </c>
-      <c r="B19" t="s">
-        <v>656</v>
-      </c>
-      <c r="C19" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>332</v>
-      </c>
-      <c r="B20" t="s">
-        <v>651</v>
-      </c>
-      <c r="C20" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>514</v>
-      </c>
-      <c r="B21" t="s">
-        <v>656</v>
-      </c>
-      <c r="C21" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>372</v>
-      </c>
-      <c r="B22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>340</v>
-      </c>
-      <c r="B23" t="s">
-        <v>636</v>
-      </c>
-      <c r="C23" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A190" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B190" t="s">
+        <v>622</v>
+      </c>
+      <c r="E190" t="s">
+        <v>623</v>
+      </c>
+      <c r="I190" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A191" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="B191" t="s">
+        <v>737</v>
+      </c>
+      <c r="F191" t="s">
+        <v>738</v>
+      </c>
+      <c r="I191" s="2" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A192" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B192" s="6" t="s">
+        <v>625</v>
+      </c>
+      <c r="C192" s="6"/>
+      <c r="D192" s="6"/>
+      <c r="E192" s="6"/>
+      <c r="F192" s="6"/>
+      <c r="G192" s="6"/>
+      <c r="H192" s="6"/>
+      <c r="I192" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A193" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B193" t="s">
+        <v>622</v>
+      </c>
+      <c r="E193" t="s">
+        <v>623</v>
+      </c>
+      <c r="I193" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A194" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B194" s="6" t="s">
+        <v>625</v>
+      </c>
+      <c r="C194" s="6"/>
+      <c r="D194" s="6"/>
+      <c r="E194" s="6"/>
+      <c r="F194" s="6"/>
+      <c r="G194" s="6"/>
+      <c r="H194" s="6"/>
+      <c r="I194" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A195" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B195" s="6" t="s">
+        <v>625</v>
+      </c>
+      <c r="C195" s="6"/>
+      <c r="D195" s="6"/>
+      <c r="E195" s="6"/>
+      <c r="F195" s="6"/>
+      <c r="G195" s="6"/>
+      <c r="H195" s="6"/>
+      <c r="I195" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A196" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="B196" t="s">
+        <v>625</v>
+      </c>
+      <c r="C196" t="s">
+        <v>706</v>
+      </c>
+      <c r="I196" s="2" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A197" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="B197" t="s">
+        <v>622</v>
+      </c>
+      <c r="E197" t="s">
+        <v>623</v>
+      </c>
+      <c r="I197" s="2" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A198" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="D198" s="3"/>
+      <c r="E198" s="3"/>
+      <c r="F198" s="3"/>
+      <c r="G198" s="3"/>
+      <c r="H198" s="3"/>
+      <c r="I198" s="2" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A199" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="B24" t="s">
-        <v>636</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="B199" s="6" t="s">
+        <v>625</v>
+      </c>
+      <c r="C199" s="6"/>
+      <c r="D199" s="6"/>
+      <c r="E199" s="6"/>
+      <c r="F199" s="6"/>
+      <c r="G199" s="6"/>
+      <c r="H199" s="6"/>
+      <c r="I199" s="2" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>491</v>
-      </c>
-      <c r="B25" t="s">
-        <v>635</v>
-      </c>
-      <c r="C25" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>561</v>
-      </c>
-      <c r="B26" t="s">
-        <v>635</v>
-      </c>
-      <c r="C26" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>629</v>
-      </c>
-      <c r="B27" t="s">
-        <v>650</v>
-      </c>
-      <c r="C27" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>369</v>
-      </c>
-      <c r="B28" t="s">
-        <v>650</v>
-      </c>
-      <c r="C28" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>370</v>
-      </c>
-      <c r="B29" t="s">
-        <v>650</v>
-      </c>
-      <c r="C29" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>557</v>
-      </c>
-      <c r="B30" t="s">
-        <v>635</v>
-      </c>
-      <c r="C30" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>520</v>
-      </c>
-      <c r="B31" t="s">
-        <v>635</v>
-      </c>
-      <c r="C31" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>555</v>
-      </c>
-      <c r="B33" t="s">
-        <v>555</v>
-      </c>
-      <c r="C33" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>326</v>
-      </c>
-      <c r="B34" t="s">
-        <v>650</v>
-      </c>
-      <c r="C34" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>606</v>
-      </c>
-      <c r="B35" t="s">
-        <v>638</v>
-      </c>
-      <c r="C35" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>517</v>
-      </c>
-      <c r="B36" t="s">
-        <v>640</v>
-      </c>
-      <c r="C36" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>492</v>
-      </c>
-      <c r="B37" t="s">
-        <v>635</v>
-      </c>
-      <c r="C37" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>563</v>
-      </c>
-      <c r="B38" t="s">
-        <v>635</v>
-      </c>
-      <c r="C38" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>458</v>
-      </c>
-      <c r="B39" t="s">
-        <v>646</v>
-      </c>
-      <c r="C39" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>450</v>
-      </c>
-      <c r="B40" t="s">
-        <v>639</v>
-      </c>
-      <c r="C40" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>334</v>
-      </c>
-      <c r="B41" t="s">
-        <v>644</v>
-      </c>
-      <c r="C41" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>411</v>
-      </c>
-      <c r="B42" t="s">
-        <v>644</v>
-      </c>
-      <c r="C42" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>413</v>
-      </c>
-      <c r="B43" t="s">
-        <v>644</v>
-      </c>
-      <c r="C43" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>464</v>
-      </c>
-      <c r="B44" t="s">
-        <v>644</v>
-      </c>
-      <c r="C44" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>360</v>
-      </c>
-      <c r="B45" t="s">
-        <v>644</v>
-      </c>
-      <c r="C45" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>328</v>
-      </c>
-      <c r="B46" t="s">
-        <v>644</v>
-      </c>
-      <c r="C46" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>513</v>
-      </c>
-      <c r="B47" t="s">
-        <v>644</v>
-      </c>
-      <c r="C47" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>570</v>
-      </c>
-      <c r="B48" t="s">
-        <v>646</v>
-      </c>
-      <c r="C48" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>397</v>
-      </c>
-      <c r="B49" t="s">
-        <v>397</v>
-      </c>
-      <c r="C49" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>489</v>
-      </c>
-      <c r="B50" t="s">
-        <v>635</v>
-      </c>
-      <c r="C50" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>568</v>
-      </c>
-      <c r="B51" t="s">
-        <v>641</v>
-      </c>
-      <c r="C51" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>468</v>
-      </c>
-      <c r="B52" t="s">
-        <v>635</v>
-      </c>
-      <c r="C52" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>474</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>641</v>
-      </c>
-      <c r="C53" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>486</v>
-      </c>
-      <c r="B54" t="s">
-        <v>36</v>
-      </c>
-      <c r="C54" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>476</v>
-      </c>
-      <c r="B55" t="s">
-        <v>36</v>
-      </c>
-      <c r="C55" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>480</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>641</v>
-      </c>
-      <c r="C56" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>354</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>639</v>
-      </c>
-      <c r="C57" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>598</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>644</v>
-      </c>
-      <c r="C58" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>385</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>636</v>
-      </c>
-      <c r="C59" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>448</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>649</v>
-      </c>
-      <c r="C60" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>439</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>649</v>
-      </c>
-      <c r="C61" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>447</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>649</v>
-      </c>
-      <c r="C62" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>427</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>649</v>
-      </c>
-      <c r="C63" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>425</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>649</v>
-      </c>
-      <c r="C64" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>434</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>649</v>
-      </c>
-      <c r="C65" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>437</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>649</v>
-      </c>
-      <c r="C66" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>419</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>649</v>
-      </c>
-      <c r="C67" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>462</v>
-      </c>
-      <c r="B68" t="s">
-        <v>36</v>
-      </c>
-      <c r="C68" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="7" t="s">
-        <v>564</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>564</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>546</v>
-      </c>
-      <c r="B70" t="s">
-        <v>636</v>
-      </c>
-      <c r="C70" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>302</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>636</v>
-      </c>
-      <c r="C71" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>306</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>636</v>
-      </c>
-      <c r="C72" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>512</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>655</v>
-      </c>
-      <c r="C73" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>587</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="C74" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>452</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="C75" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>304</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="C76" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>502</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>653</v>
-      </c>
-      <c r="C77" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>494</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>653</v>
-      </c>
-      <c r="C78" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>298</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>636</v>
-      </c>
-      <c r="C79" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>532</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>636</v>
-      </c>
-      <c r="C80" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>466</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>646</v>
-      </c>
-      <c r="C81" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>583</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="C82" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>519</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>636</v>
-      </c>
-      <c r="C83" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>604</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>636</v>
-      </c>
-      <c r="C84" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>367</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>643</v>
-      </c>
-      <c r="C85" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>407</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>649</v>
-      </c>
-      <c r="C86" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>316</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C87" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>589</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="C88" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>590</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C89" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>534</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>636</v>
-      </c>
-      <c r="C90" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>290</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>644</v>
-      </c>
-      <c r="C91" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>432</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>649</v>
-      </c>
-      <c r="C92" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>429</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>649</v>
-      </c>
-      <c r="C93" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>430</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>649</v>
-      </c>
-      <c r="C94" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>280</v>
-      </c>
-      <c r="B95" t="s">
-        <v>644</v>
-      </c>
-      <c r="C95" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>623</v>
-      </c>
-      <c r="B96" t="s">
-        <v>636</v>
-      </c>
-      <c r="C96" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>405</v>
-      </c>
-      <c r="B97" t="s">
-        <v>636</v>
-      </c>
-      <c r="C97" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>627</v>
-      </c>
-      <c r="B98" t="s">
-        <v>636</v>
-      </c>
-      <c r="C98" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>540</v>
-      </c>
-      <c r="B99" t="s">
-        <v>36</v>
-      </c>
-      <c r="C99" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>608</v>
-      </c>
-      <c r="B100" t="s">
-        <v>636</v>
-      </c>
-      <c r="C100" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>584</v>
-      </c>
-      <c r="B101" t="s">
-        <v>639</v>
-      </c>
-      <c r="C101" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>401</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>649</v>
-      </c>
-      <c r="C102" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>409</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>649</v>
-      </c>
-      <c r="C103" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>553</v>
-      </c>
-      <c r="B104" t="s">
-        <v>553</v>
-      </c>
-      <c r="C104" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>554</v>
-      </c>
-      <c r="B105" t="s">
-        <v>554</v>
-      </c>
-      <c r="C105" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>596</v>
-      </c>
-      <c r="B106" t="s">
-        <v>644</v>
-      </c>
-      <c r="C106" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>356</v>
-      </c>
-      <c r="B107" t="s">
-        <v>636</v>
-      </c>
-      <c r="C107" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>393</v>
-      </c>
-      <c r="B108" t="s">
-        <v>644</v>
-      </c>
-      <c r="C108" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>383</v>
-      </c>
-      <c r="B109" t="s">
-        <v>636</v>
-      </c>
-      <c r="C109" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
-        <v>312</v>
-      </c>
-      <c r="B110" t="s">
-        <v>642</v>
-      </c>
-      <c r="C110" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>294</v>
-      </c>
-      <c r="B111" s="6" t="s">
-        <v>642</v>
-      </c>
-      <c r="C111" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
-        <v>504</v>
-      </c>
-      <c r="B112" t="s">
-        <v>653</v>
-      </c>
-      <c r="C112" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>506</v>
-      </c>
-      <c r="B113" t="s">
-        <v>653</v>
-      </c>
-      <c r="C113" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>498</v>
-      </c>
-      <c r="B114" t="s">
-        <v>653</v>
-      </c>
-      <c r="C114" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
-        <v>500</v>
-      </c>
-      <c r="B115" t="s">
-        <v>653</v>
-      </c>
-      <c r="C115" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>508</v>
-      </c>
-      <c r="B116" t="s">
-        <v>653</v>
-      </c>
-      <c r="C116" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
-        <v>602</v>
-      </c>
-      <c r="B117" t="s">
-        <v>636</v>
-      </c>
-      <c r="C117" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
-        <v>600</v>
-      </c>
-      <c r="B118" s="6" t="s">
-        <v>644</v>
-      </c>
-      <c r="C118" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
-        <v>594</v>
-      </c>
-      <c r="B119" t="s">
-        <v>638</v>
-      </c>
-      <c r="C119" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
-        <v>538</v>
-      </c>
-      <c r="B120" t="s">
-        <v>645</v>
-      </c>
-      <c r="C120" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
-        <v>614</v>
-      </c>
-      <c r="B121" t="s">
-        <v>636</v>
-      </c>
-      <c r="C121" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
-        <v>336</v>
-      </c>
-      <c r="B122" t="s">
-        <v>644</v>
-      </c>
-      <c r="C122" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
-        <v>549</v>
-      </c>
-      <c r="B123" t="s">
-        <v>636</v>
-      </c>
-      <c r="C123" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
-        <v>548</v>
-      </c>
-      <c r="B124" t="s">
-        <v>636</v>
-      </c>
-      <c r="C124" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
-        <v>362</v>
-      </c>
-      <c r="B125" t="s">
-        <v>636</v>
-      </c>
-      <c r="C125" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
-        <v>358</v>
-      </c>
-      <c r="B126" t="s">
-        <v>644</v>
-      </c>
-      <c r="C126" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>349</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>652</v>
-      </c>
-      <c r="C127" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
-        <v>345</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>652</v>
-      </c>
-      <c r="C128" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
-        <v>352</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>652</v>
-      </c>
-      <c r="C129" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
-        <v>346</v>
-      </c>
-      <c r="B130" s="3" t="s">
-        <v>652</v>
-      </c>
-      <c r="C130" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
-        <v>351</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>652</v>
-      </c>
-      <c r="C131" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
-        <v>347</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>652</v>
-      </c>
-      <c r="C132" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
-        <v>566</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>646</v>
-      </c>
-      <c r="C133" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
-        <v>308</v>
-      </c>
-      <c r="B134" s="3" t="s">
-        <v>636</v>
-      </c>
-      <c r="C134" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
-        <v>399</v>
-      </c>
-      <c r="B135" s="3" t="s">
-        <v>641</v>
-      </c>
-      <c r="C135" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
-        <v>456</v>
-      </c>
-      <c r="B136" s="3" t="s">
-        <v>638</v>
-      </c>
-      <c r="C136" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
-        <v>496</v>
-      </c>
-      <c r="B137" s="3" t="s">
-        <v>653</v>
-      </c>
-      <c r="C137" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
-        <v>472</v>
-      </c>
-      <c r="B138" s="3" t="s">
-        <v>636</v>
-      </c>
-      <c r="C138" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
-        <v>616</v>
-      </c>
-      <c r="B139" s="3" t="s">
-        <v>641</v>
-      </c>
-      <c r="C139" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
-        <v>377</v>
-      </c>
-      <c r="B140" s="3" t="s">
-        <v>644</v>
-      </c>
-      <c r="C140" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
-        <v>621</v>
-      </c>
-      <c r="B141" t="s">
-        <v>636</v>
-      </c>
-      <c r="C141" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
-        <v>289</v>
-      </c>
-      <c r="B142" t="s">
-        <v>636</v>
-      </c>
-      <c r="C142" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
-        <v>484</v>
-      </c>
-      <c r="B143" t="s">
-        <v>397</v>
-      </c>
-      <c r="C143" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
-        <v>482</v>
-      </c>
-      <c r="B144" t="s">
-        <v>397</v>
-      </c>
-      <c r="C144" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
-        <v>510</v>
-      </c>
-      <c r="B145" t="s">
-        <v>646</v>
-      </c>
-      <c r="C145" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
-        <v>375</v>
-      </c>
-      <c r="B146" t="s">
-        <v>644</v>
-      </c>
-      <c r="C146" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
-        <v>445</v>
-      </c>
-      <c r="B147" s="3" t="s">
-        <v>649</v>
-      </c>
-      <c r="C147" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
-        <v>620</v>
-      </c>
-      <c r="B148" t="s">
-        <v>636</v>
-      </c>
-      <c r="C148" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
-        <v>338</v>
-      </c>
-      <c r="B149" t="s">
-        <v>36</v>
-      </c>
-      <c r="C149" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
-        <v>612</v>
-      </c>
-      <c r="B150" t="s">
-        <v>642</v>
-      </c>
-      <c r="C150" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
-        <v>387</v>
-      </c>
-      <c r="B151" s="6" t="s">
-        <v>636</v>
-      </c>
-      <c r="C151" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
-        <v>300</v>
-      </c>
-      <c r="B152" s="6" t="s">
-        <v>636</v>
-      </c>
-      <c r="C152" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
-        <v>288</v>
-      </c>
-      <c r="B153" s="6" t="s">
-        <v>636</v>
-      </c>
-      <c r="C153" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
-        <v>576</v>
-      </c>
-      <c r="B154" s="3" t="s">
-        <v>646</v>
-      </c>
-      <c r="C154" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
-        <v>403</v>
-      </c>
-      <c r="B155" s="3" t="s">
-        <v>644</v>
-      </c>
-      <c r="C155" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
-        <v>657</v>
-      </c>
-      <c r="B156" s="3" t="s">
-        <v>649</v>
-      </c>
-      <c r="C156" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
-        <v>530</v>
-      </c>
-      <c r="B157" s="3" t="s">
-        <v>649</v>
-      </c>
-      <c r="C157" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
-        <v>543</v>
-      </c>
-      <c r="B158" t="s">
-        <v>646</v>
-      </c>
-      <c r="C158" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
-        <v>542</v>
-      </c>
-      <c r="B159" t="s">
-        <v>646</v>
-      </c>
-      <c r="C159" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
-        <v>618</v>
-      </c>
-      <c r="B160" t="s">
-        <v>639</v>
-      </c>
-      <c r="C160" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
-        <v>324</v>
-      </c>
-      <c r="B161" t="s">
-        <v>636</v>
-      </c>
-      <c r="C161" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A162" t="s">
-        <v>632</v>
-      </c>
-      <c r="B162" t="s">
-        <v>639</v>
-      </c>
-      <c r="C162" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A163" t="s">
-        <v>631</v>
-      </c>
-      <c r="B163" t="s">
-        <v>639</v>
-      </c>
-      <c r="C163" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
-        <v>522</v>
-      </c>
-      <c r="B164" t="s">
-        <v>522</v>
-      </c>
-      <c r="C164" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A165" t="s">
-        <v>526</v>
-      </c>
-      <c r="B165" t="s">
-        <v>526</v>
-      </c>
-      <c r="C165" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A166" t="s">
-        <v>524</v>
-      </c>
-      <c r="B166" t="s">
-        <v>524</v>
-      </c>
-      <c r="C166" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A167" t="s">
-        <v>310</v>
-      </c>
-      <c r="B167" t="s">
-        <v>635</v>
-      </c>
-      <c r="C167" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A168" t="s">
-        <v>585</v>
-      </c>
-      <c r="B168" t="s">
-        <v>641</v>
-      </c>
-      <c r="C168" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A169" t="s">
-        <v>545</v>
-      </c>
-      <c r="B169" t="s">
-        <v>635</v>
-      </c>
-      <c r="C169" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A170" t="s">
-        <v>478</v>
-      </c>
-      <c r="B170" t="s">
-        <v>636</v>
-      </c>
-      <c r="C170" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A171" t="s">
-        <v>592</v>
-      </c>
-      <c r="B171" t="s">
-        <v>636</v>
-      </c>
-      <c r="C171" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A172" t="s">
-        <v>444</v>
-      </c>
-      <c r="B172" s="3" t="s">
-        <v>649</v>
-      </c>
-      <c r="C172" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A173" t="s">
-        <v>443</v>
-      </c>
-      <c r="B173" s="3" t="s">
-        <v>649</v>
-      </c>
-      <c r="C173" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A174" t="s">
-        <v>417</v>
-      </c>
-      <c r="B174" s="3" t="s">
-        <v>649</v>
-      </c>
-      <c r="C174" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A175" t="s">
-        <v>441</v>
-      </c>
-      <c r="B175" s="3" t="s">
-        <v>649</v>
-      </c>
-      <c r="C175" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A176" t="s">
-        <v>423</v>
-      </c>
-      <c r="B176" s="3" t="s">
-        <v>649</v>
-      </c>
-      <c r="C176" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A177" t="s">
-        <v>421</v>
-      </c>
-      <c r="B177" s="3" t="s">
-        <v>649</v>
-      </c>
-      <c r="C177" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A178" t="s">
-        <v>454</v>
-      </c>
-      <c r="B178" t="s">
-        <v>636</v>
-      </c>
-      <c r="C178" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A179" t="s">
-        <v>551</v>
-      </c>
-      <c r="B179" t="s">
-        <v>647</v>
-      </c>
-      <c r="C179" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A180" t="s">
-        <v>318</v>
-      </c>
-      <c r="B180" t="s">
-        <v>638</v>
-      </c>
-      <c r="C180" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A181" t="s">
-        <v>625</v>
-      </c>
-      <c r="B181" t="s">
-        <v>636</v>
-      </c>
-      <c r="C181" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A182" t="s">
-        <v>415</v>
-      </c>
-      <c r="B182" t="s">
-        <v>647</v>
-      </c>
-      <c r="C182" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A183" t="s">
-        <v>528</v>
-      </c>
-      <c r="B183" t="s">
-        <v>648</v>
-      </c>
-      <c r="C183" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A184" t="s">
-        <v>344</v>
-      </c>
-      <c r="B184" t="s">
-        <v>36</v>
-      </c>
-      <c r="C184" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A185" t="s">
-        <v>286</v>
-      </c>
-      <c r="B185" t="s">
-        <v>36</v>
-      </c>
-      <c r="C185" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A186" t="s">
-        <v>572</v>
-      </c>
-      <c r="B186" t="s">
-        <v>36</v>
-      </c>
-      <c r="C186" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A187" t="s">
-        <v>391</v>
-      </c>
-      <c r="B187" t="s">
-        <v>641</v>
-      </c>
-      <c r="C187" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A188" t="s">
-        <v>365</v>
-      </c>
-      <c r="B188" t="s">
-        <v>636</v>
-      </c>
-      <c r="C188" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A189" t="s">
-        <v>574</v>
-      </c>
-      <c r="B189" t="s">
-        <v>636</v>
-      </c>
-      <c r="C189" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A190" t="s">
-        <v>278</v>
-      </c>
-      <c r="B190" t="s">
-        <v>636</v>
-      </c>
-      <c r="C190" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A191" t="s">
-        <v>581</v>
-      </c>
-      <c r="B191" t="s">
-        <v>648</v>
-      </c>
-      <c r="C191" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A192" t="s">
-        <v>395</v>
-      </c>
-      <c r="B192" t="s">
-        <v>644</v>
-      </c>
-      <c r="C192" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A193" t="s">
-        <v>381</v>
-      </c>
-      <c r="B193" t="s">
-        <v>636</v>
-      </c>
-      <c r="C193" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A194" t="s">
-        <v>389</v>
-      </c>
-      <c r="B194" t="s">
-        <v>644</v>
-      </c>
-      <c r="C194" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A195" t="s">
-        <v>364</v>
-      </c>
-      <c r="B195" t="s">
-        <v>644</v>
-      </c>
-      <c r="C195" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A196" t="s">
-        <v>578</v>
-      </c>
-      <c r="B196" t="s">
-        <v>397</v>
-      </c>
-      <c r="C196" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A197" t="s">
-        <v>582</v>
-      </c>
-      <c r="B197" t="s">
-        <v>636</v>
-      </c>
-      <c r="C197" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A198" t="s">
-        <v>579</v>
-      </c>
-      <c r="B198" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="C198" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A199" t="s">
-        <v>379</v>
-      </c>
-      <c r="B199" t="s">
-        <v>644</v>
-      </c>
-      <c r="C199" t="s">
-        <v>378</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState ref="A2:C199">
+  <sortState ref="A2:I199">
     <sortCondition ref="A2:A199"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4621,195 +5928,312 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37F7AE3F-2BA5-E142-A2BC-B9B80F4029A9}">
-  <dimension ref="A1:A36"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:A28"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="255.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="164" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>35</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>630</v>
+      </c>
+      <c r="B2" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>632</v>
+      </c>
+      <c r="B3" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>634</v>
+      </c>
+      <c r="B4" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>636</v>
+      </c>
+      <c r="B5" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>638</v>
+      </c>
+      <c r="B6" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>640</v>
+      </c>
+      <c r="B7" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>642</v>
+      </c>
+      <c r="B8" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>644</v>
+      </c>
+      <c r="B9" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>646</v>
+      </c>
+      <c r="B10" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>648</v>
+      </c>
+      <c r="B11" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>649</v>
+      </c>
+      <c r="B12" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>651</v>
+      </c>
+      <c r="B13" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>652</v>
+      </c>
+      <c r="B14" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>653</v>
+      </c>
+      <c r="B15" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>655</v>
+      </c>
+      <c r="B16" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>657</v>
+      </c>
+      <c r="B17" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>659</v>
+      </c>
+      <c r="B18" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>661</v>
+      </c>
+      <c r="B19" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>663</v>
+      </c>
+      <c r="B20" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>665</v>
+      </c>
+      <c r="B21" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>667</v>
+      </c>
+      <c r="B22" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>669</v>
+      </c>
+      <c r="B23" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>671</v>
+      </c>
+      <c r="B24" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>673</v>
+      </c>
+      <c r="B25" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>675</v>
+      </c>
+      <c r="B26" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>677</v>
+      </c>
+      <c r="B27" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>678</v>
+      </c>
+      <c r="B28" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>680</v>
+      </c>
+      <c r="B29" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>682</v>
+      </c>
+      <c r="B30" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>684</v>
+      </c>
+      <c r="B31" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>686</v>
+      </c>
+      <c r="B32" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>688</v>
+      </c>
+      <c r="B33" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>690</v>
+      </c>
+      <c r="B34" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>692</v>
+      </c>
+      <c r="B35" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>693</v>
+      </c>
+      <c r="B36" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>694</v>
+      </c>
+      <c r="B37" t="s">
+        <v>695</v>
       </c>
     </row>
   </sheetData>
@@ -4821,8 +6245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5D78295-0F65-C44C-967F-D1363BC4006E}">
   <dimension ref="A1:A314"/>
   <sheetViews>
-    <sheetView topLeftCell="A251" workbookViewId="0">
-      <selection activeCell="A259" sqref="A259"/>
+    <sheetView topLeftCell="A283" workbookViewId="0">
+      <selection activeCell="A309" sqref="A309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4832,1572 +6256,1572 @@
   <sheetData>
     <row r="1" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>85</v>
+        <v>48</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>87</v>
+        <v>50</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>88</v>
+        <v>51</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>99</v>
+        <v>62</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>102</v>
+        <v>65</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>103</v>
+        <v>66</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>104</v>
+        <v>67</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>105</v>
+        <v>68</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>106</v>
+        <v>69</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>107</v>
+        <v>70</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>109</v>
+        <v>72</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>111</v>
+        <v>74</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>112</v>
+        <v>75</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>114</v>
+        <v>77</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>116</v>
+        <v>79</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>118</v>
+        <v>81</v>
       </c>
     </row>
     <row r="97" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>119</v>
+        <v>82</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>121</v>
+        <v>84</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>122</v>
+        <v>85</v>
       </c>
     </row>
     <row r="101" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>123</v>
+        <v>86</v>
       </c>
     </row>
     <row r="102" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>124</v>
+        <v>87</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>125</v>
+        <v>88</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>127</v>
+        <v>90</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>128</v>
+        <v>91</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>129</v>
+        <v>92</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>131</v>
+        <v>94</v>
       </c>
     </row>
     <row r="111" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>132</v>
+        <v>95</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>133</v>
+        <v>96</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>134</v>
+        <v>97</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>135</v>
+        <v>98</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="118" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>136</v>
+        <v>99</v>
       </c>
     </row>
     <row r="119" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="121" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>138</v>
+        <v>101</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
     </row>
     <row r="123" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>139</v>
+        <v>102</v>
       </c>
     </row>
     <row r="124" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>140</v>
+        <v>103</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
     </row>
     <row r="127" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>141</v>
+        <v>104</v>
       </c>
     </row>
     <row r="128" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>118</v>
+        <v>81</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>142</v>
+        <v>105</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
     </row>
     <row r="131" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
     </row>
     <row r="132" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
     </row>
     <row r="133" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
     </row>
     <row r="134" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>145</v>
+        <v>108</v>
       </c>
     </row>
     <row r="135" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>146</v>
+        <v>109</v>
       </c>
     </row>
     <row r="136" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>147</v>
+        <v>110</v>
       </c>
     </row>
     <row r="137" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>148</v>
+        <v>111</v>
       </c>
     </row>
     <row r="138" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>149</v>
+        <v>112</v>
       </c>
     </row>
     <row r="139" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>125</v>
+        <v>88</v>
       </c>
     </row>
     <row r="140" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>150</v>
+        <v>113</v>
       </c>
     </row>
     <row r="141" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>151</v>
+        <v>114</v>
       </c>
     </row>
     <row r="142" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>152</v>
+        <v>115</v>
       </c>
     </row>
     <row r="143" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="144" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>153</v>
+        <v>116</v>
       </c>
     </row>
     <row r="145" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
     </row>
     <row r="146" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
     </row>
     <row r="147" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>156</v>
+        <v>119</v>
       </c>
     </row>
     <row r="148" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>157</v>
+        <v>120</v>
       </c>
     </row>
     <row r="149" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="150" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>158</v>
+        <v>121</v>
       </c>
     </row>
     <row r="151" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
     </row>
     <row r="152" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="153" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>160</v>
+        <v>123</v>
       </c>
     </row>
     <row r="154" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>161</v>
+        <v>124</v>
       </c>
     </row>
     <row r="155" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="156" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
     </row>
     <row r="157" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
     </row>
     <row r="158" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
     </row>
     <row r="159" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
     </row>
     <row r="160" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>166</v>
+        <v>129</v>
       </c>
     </row>
     <row r="161" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>167</v>
+        <v>130</v>
       </c>
     </row>
     <row r="162" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>168</v>
+        <v>131</v>
       </c>
     </row>
     <row r="163" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>169</v>
+        <v>132</v>
       </c>
     </row>
     <row r="164" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>170</v>
+        <v>133</v>
       </c>
     </row>
     <row r="165" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="166" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>171</v>
+        <v>134</v>
       </c>
     </row>
     <row r="167" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>172</v>
+        <v>135</v>
       </c>
     </row>
     <row r="168" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="169" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>173</v>
+        <v>136</v>
       </c>
     </row>
     <row r="170" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>174</v>
+        <v>137</v>
       </c>
     </row>
     <row r="171" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="172" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>175</v>
+        <v>138</v>
       </c>
     </row>
     <row r="173" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
     </row>
     <row r="174" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>177</v>
+        <v>140</v>
       </c>
     </row>
     <row r="175" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>178</v>
+        <v>141</v>
       </c>
     </row>
     <row r="176" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>102</v>
+        <v>65</v>
       </c>
     </row>
     <row r="177" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>179</v>
+        <v>142</v>
       </c>
     </row>
     <row r="178" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>180</v>
+        <v>143</v>
       </c>
     </row>
     <row r="179" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
     </row>
     <row r="180" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>181</v>
+        <v>144</v>
       </c>
     </row>
     <row r="181" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>182</v>
+        <v>145</v>
       </c>
     </row>
     <row r="182" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>183</v>
+        <v>146</v>
       </c>
     </row>
     <row r="183" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>184</v>
+        <v>147</v>
       </c>
     </row>
     <row r="184" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
     </row>
     <row r="185" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>185</v>
+        <v>148</v>
       </c>
     </row>
     <row r="186" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="187" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>186</v>
+        <v>149</v>
       </c>
     </row>
     <row r="188" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
     </row>
     <row r="189" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>188</v>
+        <v>151</v>
       </c>
     </row>
     <row r="190" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>189</v>
+        <v>152</v>
       </c>
     </row>
     <row r="191" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="192" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>190</v>
+        <v>153</v>
       </c>
     </row>
     <row r="193" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>191</v>
+        <v>154</v>
       </c>
     </row>
     <row r="194" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>192</v>
+        <v>155</v>
       </c>
     </row>
     <row r="195" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>193</v>
+        <v>156</v>
       </c>
     </row>
     <row r="196" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
     </row>
     <row r="197" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>195</v>
+        <v>158</v>
       </c>
     </row>
     <row r="198" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>196</v>
+        <v>159</v>
       </c>
     </row>
     <row r="199" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="200" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>197</v>
+        <v>160</v>
       </c>
     </row>
     <row r="201" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>198</v>
+        <v>161</v>
       </c>
     </row>
     <row r="202" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>199</v>
+        <v>162</v>
       </c>
     </row>
     <row r="203" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="204" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>200</v>
+        <v>163</v>
       </c>
     </row>
     <row r="205" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>201</v>
+        <v>164</v>
       </c>
     </row>
     <row r="206" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>202</v>
+        <v>165</v>
       </c>
     </row>
     <row r="207" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>203</v>
+        <v>166</v>
       </c>
     </row>
     <row r="208" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>204</v>
+        <v>167</v>
       </c>
     </row>
     <row r="209" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>205</v>
+        <v>168</v>
       </c>
     </row>
     <row r="210" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>206</v>
+        <v>169</v>
       </c>
     </row>
     <row r="211" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>207</v>
+        <v>170</v>
       </c>
     </row>
     <row r="212" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>208</v>
+        <v>171</v>
       </c>
     </row>
     <row r="213" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
     </row>
     <row r="214" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>118</v>
+        <v>81</v>
       </c>
     </row>
     <row r="215" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>209</v>
+        <v>172</v>
       </c>
     </row>
     <row r="216" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>142</v>
+        <v>105</v>
       </c>
     </row>
     <row r="217" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>210</v>
+        <v>173</v>
       </c>
     </row>
     <row r="218" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
     </row>
     <row r="219" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>211</v>
+        <v>174</v>
       </c>
     </row>
     <row r="220" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>212</v>
+        <v>175</v>
       </c>
     </row>
     <row r="221" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>213</v>
+        <v>176</v>
       </c>
     </row>
     <row r="222" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>214</v>
+        <v>177</v>
       </c>
     </row>
     <row r="223" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>147</v>
+        <v>110</v>
       </c>
     </row>
     <row r="224" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>149</v>
+        <v>112</v>
       </c>
     </row>
     <row r="225" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>215</v>
+        <v>178</v>
       </c>
     </row>
     <row r="226" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>216</v>
+        <v>179</v>
       </c>
     </row>
     <row r="227" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>217</v>
+        <v>180</v>
       </c>
     </row>
     <row r="228" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>218</v>
+        <v>181</v>
       </c>
     </row>
     <row r="229" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>219</v>
+        <v>182</v>
       </c>
     </row>
     <row r="230" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>220</v>
+        <v>183</v>
       </c>
     </row>
     <row r="231" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>221</v>
+        <v>184</v>
       </c>
     </row>
     <row r="232" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>222</v>
+        <v>185</v>
       </c>
     </row>
     <row r="233" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>223</v>
+        <v>186</v>
       </c>
     </row>
     <row r="234" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>224</v>
+        <v>187</v>
       </c>
     </row>
     <row r="235" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>225</v>
+        <v>188</v>
       </c>
     </row>
     <row r="236" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>226</v>
+        <v>189</v>
       </c>
     </row>
     <row r="237" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>227</v>
+        <v>190</v>
       </c>
     </row>
     <row r="238" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="239" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>228</v>
+        <v>191</v>
       </c>
     </row>
     <row r="240" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>229</v>
+        <v>192</v>
       </c>
     </row>
     <row r="241" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>230</v>
+        <v>193</v>
       </c>
     </row>
     <row r="242" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="243" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>231</v>
+        <v>194</v>
       </c>
     </row>
     <row r="244" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>232</v>
+        <v>195</v>
       </c>
     </row>
     <row r="245" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>233</v>
+        <v>196</v>
       </c>
     </row>
     <row r="246" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>234</v>
+        <v>197</v>
       </c>
     </row>
     <row r="247" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>235</v>
+        <v>198</v>
       </c>
     </row>
     <row r="248" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>236</v>
+        <v>199</v>
       </c>
     </row>
     <row r="249" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="250" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>237</v>
+        <v>200</v>
       </c>
     </row>
     <row r="251" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>238</v>
+        <v>201</v>
       </c>
     </row>
     <row r="252" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="253" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>239</v>
+        <v>202</v>
       </c>
     </row>
     <row r="254" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>240</v>
+        <v>203</v>
       </c>
     </row>
     <row r="255" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="256" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>241</v>
+        <v>204</v>
       </c>
     </row>
     <row r="257" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>242</v>
+        <v>205</v>
       </c>
     </row>
     <row r="258" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>243</v>
+        <v>206</v>
       </c>
     </row>
     <row r="259" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>244</v>
+        <v>207</v>
       </c>
     </row>
     <row r="260" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="261" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>245</v>
+        <v>208</v>
       </c>
     </row>
     <row r="262" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>246</v>
+        <v>209</v>
       </c>
     </row>
     <row r="263" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="264" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>247</v>
+        <v>210</v>
       </c>
     </row>
     <row r="265" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
     </row>
     <row r="266" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>177</v>
+        <v>140</v>
       </c>
     </row>
     <row r="267" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>248</v>
+        <v>211</v>
       </c>
     </row>
     <row r="268" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>102</v>
+        <v>65</v>
       </c>
     </row>
     <row r="269" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>249</v>
+        <v>212</v>
       </c>
     </row>
     <row r="270" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
     </row>
     <row r="271" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
     </row>
     <row r="272" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
     </row>
     <row r="273" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
     </row>
     <row r="274" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="275" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>250</v>
+        <v>213</v>
       </c>
     </row>
     <row r="276" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
-        <v>251</v>
+        <v>214</v>
       </c>
     </row>
     <row r="277" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="278" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>252</v>
+        <v>215</v>
       </c>
     </row>
     <row r="279" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>253</v>
+        <v>216</v>
       </c>
     </row>
     <row r="280" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>254</v>
+        <v>217</v>
       </c>
     </row>
     <row r="281" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="282" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
-        <v>255</v>
+        <v>218</v>
       </c>
     </row>
     <row r="283" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
-        <v>256</v>
+        <v>219</v>
       </c>
     </row>
     <row r="284" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>257</v>
+        <v>220</v>
       </c>
     </row>
     <row r="285" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="286" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>258</v>
+        <v>221</v>
       </c>
     </row>
     <row r="287" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
-        <v>259</v>
+        <v>222</v>
       </c>
     </row>
     <row r="288" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
-        <v>260</v>
+        <v>223</v>
       </c>
     </row>
     <row r="289" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
     </row>
     <row r="290" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>133</v>
+        <v>96</v>
       </c>
     </row>
     <row r="291" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
-        <v>181</v>
+        <v>144</v>
       </c>
     </row>
     <row r="292" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
-        <v>261</v>
+        <v>224</v>
       </c>
     </row>
     <row r="293" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
     </row>
     <row r="294" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
     </row>
     <row r="295" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
-        <v>262</v>
+        <v>225</v>
       </c>
     </row>
     <row r="296" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
-        <v>263</v>
+        <v>226</v>
       </c>
     </row>
     <row r="297" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
-        <v>141</v>
+        <v>104</v>
       </c>
     </row>
     <row r="298" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
-        <v>210</v>
+        <v>173</v>
       </c>
     </row>
     <row r="299" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
-        <v>264</v>
+        <v>227</v>
       </c>
     </row>
     <row r="300" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
-        <v>265</v>
+        <v>228</v>
       </c>
     </row>
     <row r="301" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
-        <v>266</v>
+        <v>229</v>
       </c>
     </row>
     <row r="302" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
-        <v>267</v>
+        <v>230</v>
       </c>
     </row>
     <row r="303" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
     </row>
     <row r="304" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
     </row>
     <row r="305" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
-        <v>268</v>
+        <v>231</v>
       </c>
     </row>
     <row r="306" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
     </row>
     <row r="307" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
-        <v>269</v>
+        <v>232</v>
       </c>
     </row>
     <row r="308" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
-        <v>270</v>
+        <v>233</v>
       </c>
     </row>
     <row r="309" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
-        <v>271</v>
+        <v>234</v>
       </c>
     </row>
     <row r="310" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
-        <v>272</v>
+        <v>235</v>
       </c>
     </row>
     <row r="311" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
-        <v>273</v>
+        <v>236</v>
       </c>
     </row>
     <row r="312" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
-        <v>274</v>
+        <v>237</v>
       </c>
     </row>
     <row r="313" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
-        <v>275</v>
+        <v>238</v>
       </c>
     </row>
     <row r="314" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
-        <v>276</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>

--- a/scratch/biofab-sample-objects.xlsx
+++ b/scratch/biofab-sample-objects.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danyfu/Documents/bio-circuit/aq-data-analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danyfu/Documents/bio-circuit/crucible/scratch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B2E2B94-E8C0-2A40-8B15-C581B78CFB2C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{793C813F-AF8E-174B-B5CA-ADC061018FB1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36760" yWindow="560" windowWidth="36240" windowHeight="18600" xr2:uid="{2DE4FFE6-46AA-964F-BC5A-EB64A4A67A85}"/>
+    <workbookView xWindow="-38400" yWindow="580" windowWidth="36240" windowHeight="19300" xr2:uid="{2DE4FFE6-46AA-964F-BC5A-EB64A4A67A85}"/>
   </bookViews>
   <sheets>
     <sheet name="containers" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="739">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="750">
   <si>
     <t>500mL bottle</t>
   </si>
@@ -2156,9 +2156,6 @@
     <t>15mL</t>
   </si>
   <si>
-    <t>plant</t>
-  </si>
-  <si>
     <t>lentivirus container</t>
   </si>
   <si>
@@ -2168,9 +2165,6 @@
     <t>screw cap</t>
   </si>
   <si>
-    <t>container_type</t>
-  </si>
-  <si>
     <t>container</t>
   </si>
   <si>
@@ -2198,9 +2192,6 @@
     <t>tissue</t>
   </si>
   <si>
-    <t>leaf discs</t>
-  </si>
-  <si>
     <t>hydra dish</t>
   </si>
   <si>
@@ -2247,6 +2238,48 @@
   </si>
   <si>
     <t>1.8mL</t>
+  </si>
+  <si>
+    <t>container_attr</t>
+  </si>
+  <si>
+    <t>seeds</t>
+  </si>
+  <si>
+    <t>arabidopsis</t>
+  </si>
+  <si>
+    <t>arabidopsis-T1</t>
+  </si>
+  <si>
+    <t>plant-agrobacterium</t>
+  </si>
+  <si>
+    <t>n-benthamiana</t>
+  </si>
+  <si>
+    <t>arabidopsis-T2</t>
+  </si>
+  <si>
+    <t>arabidopsis-seedling</t>
+  </si>
+  <si>
+    <t>arabidopsis-T1-seedling</t>
+  </si>
+  <si>
+    <t>arabidopsis-T2-seedling</t>
+  </si>
+  <si>
+    <t>arabidopsis-T3-seedling</t>
+  </si>
+  <si>
+    <t>leaf disc</t>
+  </si>
+  <si>
+    <t>n-benthamiana-seedlings</t>
+  </si>
+  <si>
+    <t>slot</t>
   </si>
 </sst>
 </file>
@@ -2280,7 +2313,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2302,6 +2335,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2333,7 +2372,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -2353,6 +2392,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2670,15 +2710,16 @@
   <dimension ref="A1:I199"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A192" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D204" sqref="D204"/>
+      <pane ySplit="1" topLeftCell="A163" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="33.83203125" style="2" customWidth="1"/>
     <col min="2" max="2" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="19.1640625" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="19.1640625" customWidth="1"/>
     <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.83203125" bestFit="1" customWidth="1"/>
@@ -2690,10 +2731,10 @@
         <v>597</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>712</v>
+        <v>736</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>628</v>
@@ -2705,10 +2746,10 @@
         <v>620</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="I1" s="10" t="s">
         <v>596</v>
@@ -2855,7 +2896,7 @@
       <c r="A10" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="15" t="s">
         <v>625</v>
       </c>
       <c r="C10" t="s">
@@ -2913,7 +2954,7 @@
         <v>623</v>
       </c>
       <c r="G13" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>244</v>
@@ -2941,7 +2982,7 @@
         <v>622</v>
       </c>
       <c r="C15" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E15" t="s">
         <v>626</v>
@@ -3022,6 +3063,9 @@
       <c r="B20" t="s">
         <v>600</v>
       </c>
+      <c r="C20" t="s">
+        <v>749</v>
+      </c>
       <c r="I20" s="2" t="s">
         <v>294</v>
       </c>
@@ -3498,6 +3542,9 @@
       <c r="B51" t="s">
         <v>622</v>
       </c>
+      <c r="C51" t="s">
+        <v>706</v>
+      </c>
       <c r="E51" t="s">
         <v>707</v>
       </c>
@@ -3509,9 +3556,17 @@
       <c r="A52" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="6" t="s">
         <v>598</v>
       </c>
+      <c r="C52" s="6" t="s">
+        <v>706</v>
+      </c>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
       <c r="I52" s="2" t="s">
         <v>430</v>
       </c>
@@ -3623,17 +3678,15 @@
       <c r="A59" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="6" t="s">
         <v>622</v>
       </c>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3" t="s">
-        <v>623</v>
-      </c>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
       <c r="I59" s="2" t="s">
         <v>347</v>
       </c>
@@ -3643,10 +3696,10 @@
         <v>411</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>708</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>717</v>
+        <v>715</v>
+      </c>
+      <c r="C60" t="s">
+        <v>743</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -3662,10 +3715,10 @@
         <v>402</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>708</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>719</v>
+        <v>717</v>
+      </c>
+      <c r="C61" t="s">
+        <v>738</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -3681,10 +3734,10 @@
         <v>410</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>708</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>717</v>
+        <v>715</v>
+      </c>
+      <c r="C62" t="s">
+        <v>744</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
@@ -3700,10 +3753,10 @@
         <v>390</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>708</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>719</v>
+        <v>717</v>
+      </c>
+      <c r="C63" t="s">
+        <v>744</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
@@ -3719,10 +3772,10 @@
         <v>388</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>708</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>719</v>
+        <v>717</v>
+      </c>
+      <c r="C64" t="s">
+        <v>745</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -3738,10 +3791,10 @@
         <v>397</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>708</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>717</v>
+        <v>715</v>
+      </c>
+      <c r="C65" t="s">
+        <v>746</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -3757,10 +3810,10 @@
         <v>400</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>708</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>719</v>
+        <v>717</v>
+      </c>
+      <c r="C66" t="s">
+        <v>746</v>
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -3776,10 +3829,10 @@
         <v>382</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>708</v>
-      </c>
-      <c r="C67" s="3" t="s">
         <v>625</v>
+      </c>
+      <c r="C67" t="s">
+        <v>746</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
@@ -3951,7 +4004,7 @@
         <v>465</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
@@ -3968,7 +4021,7 @@
         <v>457</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
@@ -4045,7 +4098,7 @@
         <v>625</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
@@ -4102,7 +4155,7 @@
         <v>622</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D85" s="3"/>
       <c r="E85" s="3" t="s">
@@ -4119,10 +4172,10 @@
       <c r="A86" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="B86" s="3" t="s">
-        <v>708</v>
-      </c>
-      <c r="C86" s="3"/>
+      <c r="B86" s="15"/>
+      <c r="C86" s="3" t="s">
+        <v>738</v>
+      </c>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
       <c r="F86" s="3"/>
@@ -4136,17 +4189,17 @@
       <c r="A87" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" s="6" t="s">
         <v>624</v>
       </c>
-      <c r="C87" s="3"/>
-      <c r="D87" s="3"/>
-      <c r="E87" s="3" t="s">
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6" t="s">
         <v>610</v>
       </c>
-      <c r="F87" s="3"/>
-      <c r="G87" s="3"/>
-      <c r="H87" s="3"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="6"/>
       <c r="I87" s="2" t="s">
         <v>278</v>
       </c>
@@ -4174,17 +4227,17 @@
       <c r="A89" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B89" s="6" t="s">
         <v>624</v>
       </c>
-      <c r="C89" s="3"/>
-      <c r="D89" s="3"/>
-      <c r="E89" s="3" t="s">
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6" t="s">
         <v>610</v>
       </c>
-      <c r="F89" s="3"/>
-      <c r="G89" s="3"/>
-      <c r="H89" s="3"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="6"/>
       <c r="I89" s="2" t="s">
         <v>553</v>
       </c>
@@ -4216,7 +4269,7 @@
         <v>625</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="D91" s="3">
         <v>96</v>
@@ -4234,10 +4287,10 @@
         <v>395</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>708</v>
+        <v>716</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>717</v>
+        <v>738</v>
       </c>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
@@ -4253,10 +4306,10 @@
         <v>392</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>708</v>
+        <v>716</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>718</v>
+        <v>739</v>
       </c>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
@@ -4272,10 +4325,10 @@
         <v>393</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>708</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>718</v>
+        <v>716</v>
+      </c>
+      <c r="C94" s="15" t="s">
+        <v>738</v>
       </c>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
@@ -4381,7 +4434,7 @@
         <v>698</v>
       </c>
       <c r="C101" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="I101" s="2" t="s">
         <v>547</v>
@@ -4391,17 +4444,15 @@
       <c r="A102" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="B102" s="3" t="s">
-        <v>708</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>722</v>
-      </c>
-      <c r="D102" s="3"/>
-      <c r="E102" s="3"/>
-      <c r="F102" s="3"/>
-      <c r="G102" s="3"/>
-      <c r="H102" s="3"/>
+      <c r="B102" s="6" t="s">
+        <v>747</v>
+      </c>
+      <c r="C102" s="6"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="6"/>
+      <c r="G102" s="6"/>
+      <c r="H102" s="6"/>
       <c r="I102" s="2" t="s">
         <v>363</v>
       </c>
@@ -4411,10 +4462,10 @@
         <v>372</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>708</v>
+        <v>719</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>721</v>
+        <v>738</v>
       </c>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
@@ -4430,7 +4481,7 @@
         <v>516</v>
       </c>
       <c r="B104" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="I104" s="2" t="s">
         <v>515</v>
@@ -4441,7 +4492,7 @@
         <v>517</v>
       </c>
       <c r="B105" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="I105" s="2" t="s">
         <v>517</v>
@@ -4508,7 +4559,7 @@
         <v>622</v>
       </c>
       <c r="C110" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E110" t="s">
         <v>623</v>
@@ -4525,7 +4576,7 @@
         <v>622</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D111" s="3"/>
       <c r="E111" s="3" t="s">
@@ -4543,7 +4594,7 @@
         <v>467</v>
       </c>
       <c r="B112" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="I112" s="2" t="s">
         <v>466</v>
@@ -4554,7 +4605,7 @@
         <v>469</v>
       </c>
       <c r="B113" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="I113" s="2" t="s">
         <v>468</v>
@@ -4565,7 +4616,7 @@
         <v>461</v>
       </c>
       <c r="B114" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="I114" s="2" t="s">
         <v>460</v>
@@ -4576,7 +4627,7 @@
         <v>463</v>
       </c>
       <c r="B115" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="I115" s="2" t="s">
         <v>462</v>
@@ -4587,7 +4638,7 @@
         <v>471</v>
       </c>
       <c r="B116" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="I116" s="2" t="s">
         <v>470</v>
@@ -4649,7 +4700,7 @@
         <v>622</v>
       </c>
       <c r="C120" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E120" t="s">
         <v>626</v>
@@ -4929,7 +4980,7 @@
         <v>459</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
@@ -5085,10 +5136,10 @@
         <v>408</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>708</v>
+        <v>715</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>717</v>
+        <v>748</v>
       </c>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
@@ -5110,7 +5161,7 @@
         <v>623</v>
       </c>
       <c r="G148" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="I148" s="2" t="s">
         <v>582</v>
@@ -5141,13 +5192,13 @@
         <v>622</v>
       </c>
       <c r="C150" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E150" t="s">
         <v>623</v>
       </c>
       <c r="G150" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="I150" s="2" t="s">
         <v>574</v>
@@ -5249,10 +5300,10 @@
         <v>605</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>708</v>
+        <v>725</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>728</v>
+        <v>737</v>
       </c>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
@@ -5267,17 +5318,15 @@
       <c r="A157" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="B157" s="3" t="s">
-        <v>708</v>
-      </c>
-      <c r="C157" s="3" t="s">
-        <v>729</v>
-      </c>
-      <c r="D157" s="3"/>
-      <c r="E157" s="3"/>
-      <c r="F157" s="3"/>
-      <c r="G157" s="3"/>
-      <c r="H157" s="3"/>
+      <c r="B157" s="6" t="s">
+        <v>726</v>
+      </c>
+      <c r="C157" s="6"/>
+      <c r="D157" s="6"/>
+      <c r="E157" s="6"/>
+      <c r="F157" s="6"/>
+      <c r="G157" s="6"/>
+      <c r="H157" s="6"/>
       <c r="I157" s="2" t="s">
         <v>492</v>
       </c>
@@ -5312,7 +5361,7 @@
         <v>698</v>
       </c>
       <c r="C160" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="I160" s="2" t="s">
         <v>580</v>
@@ -5359,10 +5408,10 @@
         <v>485</v>
       </c>
       <c r="B164" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="E164" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="I164" s="2" t="s">
         <v>484</v>
@@ -5373,10 +5422,10 @@
         <v>489</v>
       </c>
       <c r="B165" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="E165" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="I165" s="2" t="s">
         <v>488</v>
@@ -5387,10 +5436,10 @@
         <v>487</v>
       </c>
       <c r="B166" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="E166" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="I166" s="2" t="s">
         <v>486</v>
@@ -5477,10 +5526,10 @@
         <v>407</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>708</v>
-      </c>
-      <c r="C172" s="3" t="s">
-        <v>735</v>
+        <v>732</v>
+      </c>
+      <c r="C172" t="s">
+        <v>738</v>
       </c>
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
@@ -5496,10 +5545,10 @@
         <v>406</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>708</v>
-      </c>
-      <c r="C173" s="3" t="s">
-        <v>735</v>
+        <v>732</v>
+      </c>
+      <c r="C173" t="s">
+        <v>739</v>
       </c>
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
@@ -5515,9 +5564,11 @@
         <v>380</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>708</v>
-      </c>
-      <c r="C174" s="3"/>
+        <v>732</v>
+      </c>
+      <c r="C174" t="s">
+        <v>740</v>
+      </c>
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
       <c r="F174" s="3"/>
@@ -5532,10 +5583,10 @@
         <v>404</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>708</v>
-      </c>
-      <c r="C175" s="3" t="s">
-        <v>735</v>
+        <v>732</v>
+      </c>
+      <c r="C175" t="s">
+        <v>741</v>
       </c>
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
@@ -5551,10 +5602,10 @@
         <v>386</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>708</v>
-      </c>
-      <c r="C176" s="3" t="s">
-        <v>735</v>
+        <v>732</v>
+      </c>
+      <c r="C176" t="s">
+        <v>739</v>
       </c>
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
@@ -5570,10 +5621,10 @@
         <v>384</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>708</v>
-      </c>
-      <c r="C177" s="3" t="s">
-        <v>735</v>
+        <v>732</v>
+      </c>
+      <c r="C177" t="s">
+        <v>742</v>
       </c>
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
@@ -5603,7 +5654,7 @@
         <v>514</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
@@ -5647,9 +5698,15 @@
       <c r="A182" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="B182" t="s">
-        <v>736</v>
-      </c>
+      <c r="B182" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="C182" s="3"/>
+      <c r="D182" s="3"/>
+      <c r="E182" s="3"/>
+      <c r="F182" s="3"/>
+      <c r="G182" s="3"/>
+      <c r="H182" s="3"/>
       <c r="I182" s="2" t="s">
         <v>377</v>
       </c>
@@ -5658,9 +5715,15 @@
       <c r="A183" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="B183" t="s">
-        <v>737</v>
-      </c>
+      <c r="B183" s="6" t="s">
+        <v>734</v>
+      </c>
+      <c r="C183" s="6"/>
+      <c r="D183" s="6"/>
+      <c r="E183" s="6"/>
+      <c r="F183" s="6"/>
+      <c r="G183" s="6"/>
+      <c r="H183" s="6"/>
       <c r="I183" s="2" t="s">
         <v>490</v>
       </c>
@@ -5779,12 +5842,17 @@
       <c r="A191" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="B191" t="s">
-        <v>737</v>
-      </c>
-      <c r="F191" t="s">
-        <v>738</v>
-      </c>
+      <c r="B191" s="6" t="s">
+        <v>734</v>
+      </c>
+      <c r="C191" s="6"/>
+      <c r="D191" s="6"/>
+      <c r="E191" s="6"/>
+      <c r="F191" s="6" t="s">
+        <v>735</v>
+      </c>
+      <c r="G191" s="6"/>
+      <c r="H191" s="6"/>
       <c r="I191" s="2" t="s">
         <v>543</v>
       </c>
@@ -5931,7 +5999,7 @@
   <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
